--- a/TestData/DnataStock_TestData.xlsx
+++ b/TestData/DnataStock_TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Entity</t>
   </si>
@@ -25,105 +25,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>CarrierName</t>
-  </si>
-  <si>
-    <t>AirportlocationName</t>
-  </si>
-  <si>
-    <t>CarrierName1</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>Air_endingpoint</t>
-  </si>
-  <si>
-    <t>air_startingingpoint</t>
-  </si>
-  <si>
-    <t>Remark_input</t>
-  </si>
-  <si>
-    <t>GSA_SP</t>
-  </si>
-  <si>
-    <t>GSA_EP</t>
-  </si>
-  <si>
-    <t>AGENT_SP</t>
-  </si>
-  <si>
-    <t>AGENT_EP</t>
-  </si>
-  <si>
-    <t>GSA USER</t>
-  </si>
-  <si>
-    <t>GMBC</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>DUBAI</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q123 </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>17079</t>
-  </si>
-  <si>
-    <t>ThisIsForTestingRemarkDataValue</t>
-  </si>
-  <si>
-    <t>AIRLINE USER</t>
-  </si>
-  <si>
-    <t>Alufa</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>AGENT USER</t>
-  </si>
-  <si>
-    <t>asky</t>
-  </si>
-  <si>
-    <t>kale@123</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Business_agent</t>
-  </si>
-  <si>
-    <t>AEmiDXB</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>DSAAgent@dispostable.com</t>
   </si>
   <si>
     <t>CIAL USER</t>
@@ -227,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -251,22 +152,36 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,43 +189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,8 +218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,22 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,8 +249,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,25 +295,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,43 +409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,103 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,11 +504,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,41 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,173 +606,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
@@ -1214,7 +1103,7 @@
     <col min="15" max="15" width="11.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,164 +1113,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2">
-        <v>18065</v>
-      </c>
-      <c r="M2">
-        <v>18065</v>
-      </c>
-      <c r="N2">
-        <v>19054</v>
-      </c>
-      <c r="O2">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="kale@123"/>
-    <hyperlink ref="C5" r:id="rId1" display="kale@123" tooltip="mailto:kale@123"/>
-    <hyperlink ref="C6" r:id="rId1" display="kale@123"/>
-    <hyperlink ref="C7" r:id="rId1" display="kale@123"/>
-    <hyperlink ref="B7" r:id="rId2" display="DSAAgent@dispostable.com"/>
-    <hyperlink ref="C8" r:id="rId3" display="Kale@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="Kale@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1411,54 +1157,54 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1487,36 +1233,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1525,20 +1271,20 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="6:6">
       <c r="F3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="6:6">
       <c r="F4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
